--- a/product.xlsx
+++ b/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadtapash/Documents/Alltech/SpringBoot Tapash/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E0B8EFB-72E8-9A49-A6C2-99029C0C01AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2E1051-44AC-3D45-9961-4C9944DBD525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="1120" windowWidth="27640" windowHeight="15940" xr2:uid="{BEBDFABD-D7F0-DC46-BC60-58C6BB03B84F}"/>
+    <workbookView xWindow="1160" yWindow="440" windowWidth="27640" windowHeight="15940" xr2:uid="{BEBDFABD-D7F0-DC46-BC60-58C6BB03B84F}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -47,40 +47,28 @@
     <t>Description</t>
   </si>
   <si>
-    <t>USER1</t>
-  </si>
-  <si>
-    <t>Mr. Ann</t>
-  </si>
-  <si>
-    <t>User2</t>
-  </si>
-  <si>
-    <t>Mr.  Kelly</t>
-  </si>
-  <si>
-    <t>User 3</t>
-  </si>
-  <si>
-    <t>Mrs. Marvel</t>
-  </si>
-  <si>
-    <t>User4</t>
-  </si>
-  <si>
-    <t>Mrs. Anny</t>
-  </si>
-  <si>
-    <t>User 5</t>
-  </si>
-  <si>
-    <t>Mrs. Lima</t>
-  </si>
-  <si>
-    <t>User6</t>
-  </si>
-  <si>
-    <t>er</t>
+    <t>Tshirt</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>Pajama</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>large</t>
   </si>
 </sst>
 </file>
@@ -432,13 +420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A686E5FA-976F-6141-98F7-09EC5692C81F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -459,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -467,10 +458,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -478,10 +469,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -489,32 +480,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
